--- a/biology/Botanique/Vismia/Vismia.xlsx
+++ b/biology/Botanique/Vismia/Vismia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vismia est un genre de plantes à fleurs de la famille des Hypericaceae[2]. Les membres du genre sont de petits arbres et arbustes trouvés dans les régions tropicales et subtropicales d’Afrique, d’Amérique centrale et d’Amérique du Sud[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vismia est un genre de plantes à fleurs de la famille des Hypericaceae. Les membres du genre sont de petits arbres et arbustes trouvés dans les régions tropicales et subtropicales d’Afrique, d’Amérique centrale et d’Amérique du Sud,.
 Comme beaucoup d’espèces d’Hypericacées, ces plantes contiennent des xanthonoides .
 Liste des espèces :
 Vismia affinis Oliv.
